--- a/regions_data/Surowce/pie_chart_data/Zużycie ciężkiego oleju opałowego.xlsx
+++ b/regions_data/Surowce/pie_chart_data/Zużycie ciężkiego oleju opałowego.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">Nazwa wycinka</t>
+  </si>
   <si>
     <t xml:space="preserve">Dolnośląskie</t>
   </si>
@@ -215,21 +218,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="B1:R7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="26.2448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -277,72 +279,72 @@
       <c r="Q1" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="R1" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
+      <c r="J2" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="2" t="n">
+      <c r="R2" s="2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>0</v>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>0</v>
@@ -350,25 +352,25 @@
       <c r="F3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>1</v>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="n">
         <v>281</v>
       </c>
-      <c r="I3" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3" t="n">
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="3" t="n">
@@ -380,151 +382,151 @@
       <c r="P3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>1</v>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>2</v>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="N4" s="3" t="n">
-        <v>0</v>
+      <c r="N4" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="O4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3" t="n">
+      <c r="P4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="E5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>513</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>513</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" s="2" t="n">
+      <c r="M5" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="M5" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="N5" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="n">
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="n">
+      <c r="E6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>0</v>
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3" t="n">
+      <c r="K6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="3" t="n">
@@ -540,15 +542,15 @@
         <v>0</v>
       </c>
       <c r="Q6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>1</v>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
@@ -557,19 +559,19 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>0</v>
@@ -577,11 +579,11 @@
       <c r="K7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v>0</v>
+      <c r="L7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="N7" s="3" t="n">
         <v>0</v>
@@ -589,10 +591,13 @@
       <c r="O7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="3" t="n">
+      <c r="P7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="3" t="n">
         <v>0</v>
       </c>
     </row>
